--- a/Tables/lm_length_year.xlsx
+++ b/Tables/lm_length_year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\GitHub\bluegill_growth\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3018E5FA-9708-4E47-83E2-1BD445719EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B6627-BBFE-4D10-B287-635FB9CAC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{44D84ED3-D1A4-4967-9F37-9F8D85EC508C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Estimate</t>
   </si>
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,15 +181,15 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,7 +529,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -750,8 +750,8 @@
       <c r="B13" s="2">
         <v>9.2020000000000003E-4</v>
       </c>
-      <c r="C13" s="2">
-        <v>3.358E-5</v>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>27.401</v>
@@ -784,8 +784,8 @@
       <c r="B15" s="2">
         <v>7.9299999999999995E-3</v>
       </c>
-      <c r="C15" s="2">
-        <v>4.2959999999999998E-4</v>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>21.533999999999999</v>
@@ -801,8 +801,8 @@
       <c r="B16" s="2">
         <v>9.3200000000000002E-3</v>
       </c>
-      <c r="C16" s="2">
-        <v>4.328E-4</v>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>21.533999999999999</v>
@@ -818,8 +818,8 @@
       <c r="B17" s="2">
         <v>1.064E-2</v>
       </c>
-      <c r="C17" s="2">
-        <v>4.44E-4</v>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>23.957999999999998</v>
@@ -835,8 +835,8 @@
       <c r="B18" s="2">
         <v>1.1429999999999999E-2</v>
       </c>
-      <c r="C18" s="2">
-        <v>4.6430000000000001E-4</v>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>24.611000000000001</v>

--- a/Tables/lm_length_year.xlsx
+++ b/Tables/lm_length_year.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\GitHub\bluegill_growth\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B6627-BBFE-4D10-B287-635FB9CAC0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A764DEA-CB94-4F3C-89E7-DDAB3C850558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{44D84ED3-D1A4-4967-9F37-9F8D85EC508C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{44D84ED3-D1A4-4967-9F37-9F8D85EC508C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reduced Dataset" sheetId="2" r:id="rId1"/>
+    <sheet name="Full Dataset" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>Estimate</t>
   </si>
   <si>
-    <t>Std. Error</t>
-  </si>
-  <si>
     <t>t-value</t>
   </si>
   <si>
@@ -56,66 +54,70 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Age 2</t>
-  </si>
-  <si>
-    <t>Age 3</t>
-  </si>
-  <si>
-    <t>Age 4</t>
-  </si>
-  <si>
-    <t>Age 5</t>
-  </si>
-  <si>
-    <t>Age 6</t>
-  </si>
-  <si>
-    <t>Age 7</t>
-  </si>
-  <si>
-    <t>Age 8</t>
-  </si>
-  <si>
     <t>Log Area</t>
   </si>
   <si>
     <t>Log Depth</t>
   </si>
   <si>
-    <t>Day of Year</t>
-  </si>
-  <si>
-    <t>Year:Age 2</t>
-  </si>
-  <si>
-    <t>Year:Age 3</t>
-  </si>
-  <si>
-    <t>Year:Age 4</t>
-  </si>
-  <si>
-    <t>Year:Age 5</t>
-  </si>
-  <si>
-    <t>Year:Age 6</t>
-  </si>
-  <si>
-    <t>Year:Age 7</t>
-  </si>
-  <si>
-    <t>Year:Age 8</t>
-  </si>
-  <si>
     <t>&lt; 0.001</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Age2</t>
+  </si>
+  <si>
+    <t>Age3</t>
+  </si>
+  <si>
+    <t>Age4</t>
+  </si>
+  <si>
+    <t>Age5</t>
+  </si>
+  <si>
+    <t>Age6</t>
+  </si>
+  <si>
+    <t>Age7</t>
+  </si>
+  <si>
+    <t>Age8</t>
+  </si>
+  <si>
+    <t>Year:Age2</t>
+  </si>
+  <si>
+    <t>Year:Age3</t>
+  </si>
+  <si>
+    <t>Year:Age4</t>
+  </si>
+  <si>
+    <t>Year:Age5</t>
+  </si>
+  <si>
+    <t>Year:Age6</t>
+  </si>
+  <si>
+    <t>Year:Age7</t>
+  </si>
+  <si>
+    <t>Year:Age8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -178,18 +180,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,359 +579,698 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5CB585-D490-4FFE-A78F-8A03F5E3A145}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1120</v>
+      </c>
+      <c r="C2" s="2">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.8179999999999996</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.53390000000000004</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.1809999999999999E-2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-7.4349999999999996</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-172.2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>175.7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-0.98</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.32703199999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-379.3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>169.7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-2.2349999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2.5432E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-604</v>
+      </c>
+      <c r="C6" s="2">
+        <v>171.2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-3.5270000000000001</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-948.4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>174</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-5.4509999999999996</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-1187</v>
+      </c>
+      <c r="C8" s="2">
+        <v>178.6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-6.6470000000000002</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-1095</v>
+      </c>
+      <c r="C9" s="2">
+        <v>190.9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-5.734</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-847.4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>218.7</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-3.8740000000000001</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.26579999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4.633</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.46339999999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1.3738999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.10290000000000001</v>
+      </c>
+      <c r="C13" s="2">
+        <v>8.8090000000000002E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.24293799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.22090000000000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8.5080000000000003E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.597</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9.4380000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8.5870000000000002E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4.0410000000000004</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.53039999999999998</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.7249999999999994E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.0789999999999997</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.9569999999999997E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.3579999999999997</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="C18" s="2">
+        <v>9.5710000000000003E-2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.4669999999999996</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.1096</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF53A7-3831-4BE3-8410-E4E830C48C6C}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E20"/>
+      <selection sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="16">
+        <v>1697</v>
+      </c>
+      <c r="C2" s="16">
+        <v>95</v>
+      </c>
+      <c r="D2" s="14">
+        <v>17.895</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>23.29</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="D2" s="2">
-        <v>32.677999999999997</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B3" s="12">
+        <v>-0.82069999999999999</v>
+      </c>
+      <c r="C3" s="12">
+        <v>4.7690000000000003E-2</v>
+      </c>
+      <c r="D3" s="14">
+        <v>-17.209</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="16">
+        <v>-536</v>
+      </c>
+      <c r="C4" s="16">
+        <v>119</v>
+      </c>
+      <c r="D4" s="14">
+        <v>-4.5010000000000003</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="16">
+        <v>-823.8</v>
+      </c>
+      <c r="C5" s="16">
+        <v>115</v>
+      </c>
+      <c r="D5" s="14">
+        <v>-7.1390000000000002</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="16">
+        <v>-1121</v>
+      </c>
+      <c r="C6" s="16">
+        <v>116</v>
+      </c>
+      <c r="D6" s="14">
+        <v>-9.6359999999999992</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16">
+        <v>-1501</v>
+      </c>
+      <c r="C7" s="16">
+        <v>119</v>
+      </c>
+      <c r="D7" s="14">
+        <v>-12.574999999999999</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="16">
+        <v>-1806</v>
+      </c>
+      <c r="C8" s="16">
+        <v>125</v>
+      </c>
+      <c r="D8" s="14">
+        <v>-14.462999999999999</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-1715</v>
+      </c>
+      <c r="C9" s="16">
+        <v>135</v>
+      </c>
+      <c r="D9" s="14">
+        <v>-12.734999999999999</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16">
+        <v>-1660</v>
+      </c>
+      <c r="C10" s="16">
+        <v>162</v>
+      </c>
+      <c r="D10" s="14">
+        <v>-10.259</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.2009</v>
+      </c>
+      <c r="D11" s="14">
+        <v>5.2220000000000004</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.3301</v>
+      </c>
+      <c r="D12" s="14">
+        <v>6.2050000000000001</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.28470000000000001</v>
+      </c>
+      <c r="C13" s="12">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4.7530000000000001</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="C14" s="12">
+        <v>5.8029999999999998E-2</v>
+      </c>
+      <c r="D14" s="14">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="C15" s="12">
+        <v>5.851E-2</v>
+      </c>
+      <c r="D15" s="14">
+        <v>10.335000000000001</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.80549999999999999</v>
+      </c>
+      <c r="C16" s="12">
+        <v>6.003E-2</v>
+      </c>
+      <c r="D16" s="14">
+        <v>13.417999999999999</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="C17" s="12">
+        <v>6.275E-2</v>
+      </c>
+      <c r="D17" s="14">
+        <v>15.393000000000001</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.9264</v>
+      </c>
+      <c r="C18" s="12">
+        <v>6.7629999999999996E-2</v>
+      </c>
+      <c r="D18" s="14">
+        <v>13.698</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>-9.698E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3.5780000000000002E-4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>-27.100999999999999</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-10.68</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.88129999999999997</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-12.114000000000001</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-14.93</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.85419999999999996</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-17.478999999999999</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-17.71</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.86060000000000003</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-20.582999999999998</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-20.21</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-22.885999999999999</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-21.69</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.88300000000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-22.885999999999999</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-20.96</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.92359999999999998</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-23.478999999999999</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-20.46</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2010000000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-17.033999999999999</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4.4489999999999998E-3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.529E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2.91</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.62E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4.64E-3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.555E-3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6.9370000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
-        <v>9.2020000000000003E-4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2">
-        <v>27.401</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5.5640000000000004E-3</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4.3433000000000002</v>
-      </c>
-      <c r="D14" s="2">
-        <v>12.552</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2">
-        <v>7.9299999999999995E-3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2">
-        <v>21.533999999999999</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2">
-        <v>9.3200000000000002E-3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="2">
-        <v>21.533999999999999</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1.064E-2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2">
-        <v>23.957999999999998</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.1429999999999999E-2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="2">
-        <v>24.611000000000001</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1.1089999999999999E-2</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5.019E-4</v>
-      </c>
-      <c r="D19" s="2">
-        <v>22.106999999999999</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>23</v>
+      <c r="B19" s="21">
+        <v>0.90429999999999999</v>
+      </c>
+      <c r="C19" s="21">
+        <v>8.1180000000000002E-2</v>
+      </c>
+      <c r="D19" s="22">
+        <v>11.138</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="6">
-        <v>108.7</v>
-      </c>
-      <c r="C20" s="6">
-        <v>6.0269999999999996E-4</v>
-      </c>
-      <c r="D20" s="6">
-        <v>18.036000000000001</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="A20" s="17"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
